--- a/_site/2024.xlsx
+++ b/_site/2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -180,6 +180,675 @@
   </si>
   <si>
     <t xml:space="preserve">2024-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-03</t>
   </si>
 </sst>
 </file>
@@ -948,6 +1617,1790 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="n">
         <v>0</v>
       </c>
     </row>
